--- a/biology/Zoologie/Dunckerocampus_dactyliophorus/Dunckerocampus_dactyliophorus.xlsx
+++ b/biology/Zoologie/Dunckerocampus_dactyliophorus/Dunckerocampus_dactyliophorus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dunckerocampus dactyliophorus · Poisson-tuyau zébré, Syngnathe zébré
-Dunckerocampus dactyliophorus, communément nommé Poisson-tuyau zébré[2] ou Syngnathe zébré[3], est une espèce de poisson marin de la famille des Syngnathidae.
+Dunckerocampus dactyliophorus, communément nommé Poisson-tuyau zébré ou Syngnathe zébré, est une espèce de poisson marin de la famille des Syngnathidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Poisson-tuyau zébré est présent dans les eaux tropicales de l'Indo-Pacifique, soit des côtes orientales de l'Afrique aux Samoa, Mer Rouge incluse[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Poisson-tuyau zébré est présent dans les eaux tropicales de l'Indo-Pacifique, soit des côtes orientales de l'Afrique aux Samoa, Mer Rouge incluse.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille maximale du poisson-tuyau zébré est de 19 cm[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille maximale du poisson-tuyau zébré est de 19 cm.
 Il a une forme allongé tubulaire comme un tuyau. Sa couleur est jaune-clair avec de larges anneaux noirs.
 Il mange des très petits invertébrés planctoniques comme des copépodes.
-Le mâle porte les œufs incubés sous son abdomen pendant près de deux semaines puis les larves naissent et mènent une brève vie pélagique[5].
+Le mâle porte les œufs incubés sous son abdomen pendant près de deux semaines puis les larves naissent et mènent une brève vie pélagique.
 </t>
         </is>
       </c>
